--- a/xlsx/罗杰·斯佩里_intext.xlsx
+++ b/xlsx/罗杰·斯佩里_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="892">
   <si>
     <t>罗杰·斯佩里</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_计划_罗杰·斯佩里</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%94%9F%E7%90%86%E5%AD%B8%E6%88%96%E9%86%AB%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾生理學或醫學獎</t>
+    <t>诺贝尔生理学或医学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E4%BC%91%E4%BC%AF%E7%88%BE</t>
   </si>
   <si>
-    <t>大衛·休伯爾</t>
+    <t>大卫·休伯尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E5%9D%A6%C2%B7%E7%BB%B4%E5%8E%84%E7%91%9F%E5%B0%94</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%94%9F%E7%90%86%E5%AD%A6%E6%88%96%E5%8C%BB%E5%AD%A6%E5%A5%96</t>
   </si>
   <si>
-    <t>诺贝尔生理学或医学奖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%94%9F%E7%90%86%E5%AD%A6%E6%88%96%E5%8C%BB%E5%AD%A6%E5%A5%96%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E7%88%BE%C2%B7%E7%89%B9%E5%A5%A7%E5%A4%9A%E7%88%BE%C2%B7%E7%A7%91%E8%B5%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>埃米爾·特奧多爾·科赫爾</t>
+    <t>埃米尔·特奥多尔·科赫尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B8%83%E9%9B%B7%E5%B8%8C%E7%89%B9%C2%B7%E7%A7%91%E5%A1%9E%E5%B0%94</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%93%A6%C2%B7%E5%8F%A4%E7%88%BE%E6%96%AF%E7%89%B9%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾瓦·古爾斯特蘭德</t>
+    <t>阿尔瓦·古尔斯特兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%85%8B%E8%A5%BF%C2%B7%E5%8D%A1%E9%9B%B7%E5%B0%94</t>
@@ -185,31 +182,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%B7%B4%E6%8B%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>羅伯特·巴拉尼</t>
+    <t>罗伯特·巴拉尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%88%BE%C2%B7%E5%8D%9A%E7%88%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>朱爾·博爾代</t>
+    <t>朱尔·博尔代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%85%8B%E7%BE%85</t>
   </si>
   <si>
-    <t>奧古斯特·克羅</t>
+    <t>奥古斯特·克罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A5%87%E5%8D%9A%E7%88%BE%E5%BE%B7%C2%B7%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>阿奇博爾德·希爾</t>
+    <t>阿奇博尔德·希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98%C2%B7%E9%82%81%E7%88%BE%E9%9C%8D%E5%A4%AB</t>
   </si>
   <si>
-    <t>奧托·邁爾霍夫</t>
+    <t>奥托·迈尔霍夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E7%8F%AD%E5%BB%B7</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%BA%A5%E5%85%8B%E5%8B%9E%E5%BE%B7</t>
   </si>
   <si>
-    <t>約翰·麥克勞德</t>
+    <t>约翰·麦克劳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%9F%83%E5%9B%A0%E6%89%98%E8%8A%AC</t>
@@ -233,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%B0%BC%E6%96%AF%C2%B7%E8%8F%B2%E6%AF%94%E6%A0%BC</t>
   </si>
   <si>
-    <t>約翰尼斯·菲比格</t>
+    <t>约翰尼斯·菲比格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E8%91%89%E6%96%AF%C2%B7%E7%93%A6%E6%A0%BC%E7%B4%8D-%E5%A0%AF%E9%9B%B7%E6%A0%BC</t>
   </si>
   <si>
-    <t>朱利葉斯·瓦格納-堯雷格</t>
+    <t>朱利叶斯·瓦格纳-尧雷格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%B0%94%C2%B7%E5%B0%BC%E7%A7%91%E5%8B%92</t>
@@ -293,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%83%A0%E6%99%AE%E7%88%BE</t>
   </si>
   <si>
-    <t>喬治·惠普爾</t>
+    <t>乔治·惠普尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E9%82%81%E8%AB%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>喬治·邁諾特</t>
+    <t>乔治·迈诺特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%AB%E8%8F%B2</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E6%96%AF%E4%BD%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>漢斯·斯佩曼</t>
+    <t>汉斯·斯佩曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%93%88%E5%88%A9%E7%89%B9%C2%B7%E6%88%B4%E5%B0%94</t>
@@ -341,25 +338,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%93%88%E5%BE%B7%C2%B7%E5%A4%9A%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>格哈德·多馬克</t>
+    <t>格哈德·多马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%85%8B%C2%B7%E9%81%94%E5%A7%86</t>
   </si>
   <si>
-    <t>亨利克·達姆</t>
+    <t>亨利克·达姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%98%BF%E5%BE%B7%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E5%A4%9A%E4%BC%8A%E8%A5%BF</t>
   </si>
   <si>
-    <t>愛德華·阿德爾伯特·多伊西</t>
+    <t>爱德华·阿德尔伯特·多伊西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%8E%84%E7%88%BE%E8%98%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>約瑟夫·厄爾蘭格</t>
+    <t>约瑟夫·厄尔兰格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E6%BD%98%E5%A1%9E%C2%B7%E5%8A%A0%E5%A1%9E</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E5%BC%97%E6%B4%9B%E9%87%8C%EF%BC%8C%E5%BC%97%E6%B4%9B%E9%87%8C%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>霍華德·弗洛里，弗洛里男爵</t>
+    <t>霍华德·弗洛里，弗洛里男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E6%9B%BC%C2%B7%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E9%A9%AC%E5%8B%92</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E7%A9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>保羅·赫爾曼·穆勒</t>
+    <t>保罗·赫尔曼·穆勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B0%94%E7%89%B9%C2%B7%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E8%B5%AB%E6%96%AF</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%87%8C%E6%96%AF%C2%B7%E5%A8%81%E7%88%BE%E9%87%91%E6%96%AF</t>
   </si>
   <si>
-    <t>莫里斯·威爾金斯</t>
+    <t>莫里斯·威尔金斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8D%A1%E9%B2%81%C2%B7%E5%9F%83%E5%85%8B%E5%B0%94%E6%96%AF</t>
@@ -593,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E5%8B%9E%E5%9F%83%E5%BE%B7%C2%B7%E9%9C%8D%E5%A5%87%E9%87%91</t>
   </si>
   <si>
-    <t>艾倫·勞埃德·霍奇金</t>
+    <t>艾伦·劳埃德·霍奇金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>安德魯·赫胥黎</t>
+    <t>安德鲁·赫胥黎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%8B%89%E5%BE%B7%C2%B7%E5%B8%83%E6%B4%9B%E8%B5%AB</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%96%AF%E8%8F%AF%C2%B7%E8%B3%88%E5%85%8B%E6%9F%8F</t>
   </si>
   <si>
-    <t>方斯華·賈克柏</t>
+    <t>方斯华·贾克柏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E5%88%97%C2%B7%E5%88%A9%E6%B2%83%E5%A4%AB</t>
@@ -629,31 +626,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%85%8B%C2%B7%E8%8E%AB%E8%AB%BE</t>
   </si>
   <si>
-    <t>賈克·莫諾</t>
+    <t>贾克·莫诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B4%E9%A0%93%C2%B7%E5%8B%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>裴頓·勞斯</t>
+    <t>裴顿·劳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%B8%83%E8%98%AD%E9%A0%93%C2%B7%E5%93%88%E9%87%91%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·布蘭頓·哈金斯</t>
+    <t>查尔斯·布兰顿·哈金斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E7%B4%8D%C2%B7%E6%A0%BC%E6%8B%89%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>拉格納·格拉尼特</t>
+    <t>拉格纳·格拉尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E7%99%BB%C2%B7%E5%87%B1%E5%BC%97%C2%B7%E5%93%88%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>霍爾登·凱弗·哈特蘭</t>
+    <t>霍尔登·凯弗·哈特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%B0%94%E5%BE%B7</t>
@@ -665,25 +662,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7W%C2%B7%E9%9C%8D%E5%88%A9</t>
   </si>
   <si>
-    <t>羅伯特·W·霍利</t>
+    <t>罗伯特·W·霍利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%88%BE%C2%B7%E8%91%9B%E8%B3%93%C2%B7%E7%A7%91%E6%8B%89%E7%B4%8D</t>
   </si>
   <si>
-    <t>哈爾·葛賓·科拉納</t>
+    <t>哈尔·葛宾·科拉纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%C2%B7%E6%B2%83%E5%80%AB%C2%B7%E5%B0%BC%E5%80%AB%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>馬歇爾·沃倫·尼倫伯格</t>
+    <t>马歇尔·沃伦·尼伦伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E5%BE%B7%E7%88%BE%E5%B8%83%E5%91%82%E5%85%8B</t>
   </si>
   <si>
-    <t>馬克斯·德爾布呂克</t>
+    <t>马克斯·德尔布吕克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%B5%AB%E5%B8%8C</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%C2%B7%E7%9B%A7%E7%91%9E%E4%BA%9E</t>
   </si>
   <si>
-    <t>薩爾瓦多·盧瑞亞</t>
+    <t>萨尔瓦多·卢瑞亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BA%B3%E5%BE%B7%C2%B7%E5%8D%A1%E8%8C%A8</t>
@@ -719,19 +716,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%88%BE%C2%B7%E5%A8%81%E7%88%BE%E4%BC%AF%C2%B7%E8%96%A9%E7%91%9F%E8%98%AD</t>
   </si>
   <si>
-    <t>厄爾·威爾伯·薩瑟蘭</t>
+    <t>厄尔·威尔伯·萨瑟兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E7%88%BE%E5%BE%B7%C2%B7%E5%9F%83%E5%BE%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>傑拉爾德·埃德爾曼</t>
+    <t>杰拉尔德·埃德尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B0%BC%C2%B7%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E7%89%B9</t>
   </si>
   <si>
-    <t>羅德尼·羅伯特·波特</t>
+    <t>罗德尼·罗伯特·波特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%86%AF%C2%B7%E5%BC%97%E9%87%8C%E5%B8%8C</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E5%85%8B%E5%8B%9E%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾伯特·克勞德</t>
+    <t>阿尔伯特·克劳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%B1%80%C2%B7%E5%BE%B7%C2%B7%E8%BF%AA%E5%A4%AB</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%9F%83%E7%B1%B3%E7%88%BE%C2%B7%E5%B8%95%E6%8B%89%E5%BE%B7</t>
   </si>
   <si>
-    <t>喬治·埃米爾·帕拉德</t>
+    <t>乔治·埃米尔·帕拉德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9</t>
@@ -821,25 +818,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%B4%8D%C2%B7%E4%BA%9E%E4%BC%AF</t>
   </si>
   <si>
-    <t>沃納·亞伯</t>
+    <t>沃纳·亚伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E9%82%A3%E6%A3%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>丹尼爾·那森斯</t>
+    <t>丹尼尔·那森斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BD%8C%E7%88%BE%E9%A0%93%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>漢彌爾頓·史密斯</t>
+    <t>汉弥尔顿·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%AD%C2%B7%E9%BA%A5%E5%85%8B%E8%90%8A%E5%BE%B7%C2%B7%E7%A7%91%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>阿蘭·麥克萊德·科馬克</t>
+    <t>阿兰·麦克莱德·科马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BC%97%E9%9B%B7%C2%B7%E8%B1%AA%E6%96%AF%E8%B4%B9%E5%B0%94%E5%BE%B7</t>
@@ -875,19 +872,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%81%A9%C2%B7%E4%BC%AF%E6%A0%BC%E6%96%AF%E7%89%B9%E9%BE%8D</t>
   </si>
   <si>
-    <t>蘇恩·伯格斯特龍</t>
+    <t>苏恩·伯格斯特龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%A0%BC%E7%89%B9%C2%B7%E8%96%A9%E7%B1%B3%E7%88%BE%E6%9D%BE</t>
   </si>
   <si>
-    <t>本格特·薩米爾松</t>
+    <t>本格特·萨米尔松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%8C%83%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·范恩</t>
+    <t>约翰·范恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E6%8B%89%C2%B7%E9%BA%A6%E5%85%8B%E6%9E%97%E6%89%98%E5%85%8B</t>
@@ -917,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E5%9C%96%E4%BA%9E%E7%89%B9%C2%B7%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>麥可·斯圖亞特·布朗</t>
+    <t>麦可·斯图亚特·布朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E9%87%8C%E6%AD%90%E7%B4%8D%E5%BE%B7%C2%B7%E6%88%88%E7%88%BE%E8%8C%A8%E5%9D%A6</t>
   </si>
   <si>
-    <t>約瑟夫·里歐納德·戈爾茨坦</t>
+    <t>约瑟夫·里欧纳德·戈尔茨坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%C2%B7%E7%A7%91%E6%81%A9</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%A0%B9%E5%B7%9D%E9%80%B2</t>
   </si>
   <si>
-    <t>利根川進</t>
+    <t>利根川进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7W%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
@@ -953,25 +950,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E9%AD%AF%E5%BE%B7%C2%B7B%C2%B7%E5%9F%83%E5%88%A9%E6%81%A9</t>
   </si>
   <si>
-    <t>格特魯德·B·埃利恩</t>
+    <t>格特鲁德·B·埃利恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7H%C2%B7%E5%B8%8C%E6%AC%BD%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·H·希欽斯</t>
+    <t>乔治·H·希钦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%AB%98%C2%B7%E7%95%A2%E6%9B%89%E6%99%AE</t>
   </si>
   <si>
-    <t>米高·畢曉普</t>
+    <t>米高·毕晓普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E7%93%A6%E6%85%95%E6%96%AF</t>
   </si>
   <si>
-    <t>哈羅德·瓦慕斯</t>
+    <t>哈罗德·瓦慕斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E9%BB%98%E9%87%8C</t>
@@ -989,13 +986,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E6%BA%AB%C2%B7%E5%85%A7%E7%88%BE</t>
   </si>
   <si>
-    <t>厄溫·內爾</t>
+    <t>厄温·内尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%C2%B7%E8%96%A9%E5%85%8B%E6%9B%BC</t>
   </si>
   <si>
-    <t>伯特·薩克曼</t>
+    <t>伯特·萨克曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E8%B4%B9%E5%B8%8C%E5%B0%94</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
   </si>
   <si>
-    <t>理察·羅伯茨</t>
+    <t>理察·罗伯茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E5%A4%8F%E6%99%AE</t>
@@ -1019,31 +1016,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BD%9B%E5%88%97%C2%B7%E5%8F%A4%E6%9B%BC%C2%B7%E5%90%89%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>艾爾佛列·古曼·吉爾曼</t>
+    <t>艾尔佛列·古曼·吉尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E7%BE%85%E5%BE%B7%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>馬丁·羅德貝爾</t>
+    <t>马丁·罗德贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF</t>
   </si>
   <si>
-    <t>愛德華·路易斯</t>
+    <t>爱德华·路易斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%B1%80%C2%B7%E7%B4%90%E6%96%AF%E6%9E%97-%E6%B2%83%E7%88%BE%E5%93%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>克里斯汀·紐斯林-沃爾哈德</t>
+    <t>克里斯汀·纽斯林-沃尔哈德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%91%9E%E5%85%8B%C2%B7%E5%A8%81%E6%96%AF%E5%96%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>艾瑞克·威斯喬斯</t>
+    <t>艾瑞克·威斯乔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%9D%9C%E8%B5%AB%E6%8F%90</t>
@@ -1055,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A4%AB%C2%B7%E8%BE%9B%E5%85%8B%E7%B4%8D%E5%90%89</t>
   </si>
   <si>
-    <t>羅夫·辛克納吉</t>
+    <t>罗夫·辛克纳吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%9D%A6%E5%88%A9%C2%B7%E5%B8%83%E9%AD%AF%E5%B8%8C%E7%B4%8D</t>
   </si>
   <si>
-    <t>史坦利·布魯希納</t>
+    <t>史坦利·布鲁希纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E4%BD%9B%E5%A5%91%E5%93%A5%E7%89%B9</t>
   </si>
   <si>
-    <t>羅伯·佛契哥特</t>
+    <t>罗伯·佛契哥特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E8%B7%AF%E4%BC%8A%E6%A0%BC%E7%BA%B3%E6%B4%9B</t>
@@ -1079,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%91%9E%C2%B7%E6%85%95%E6%8B%89%E5%BE%B7</t>
   </si>
   <si>
-    <t>費瑞·慕拉德</t>
+    <t>费瑞·慕拉德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%89%B9%C2%B7%E5%B8%83%E6%B4%9B%E4%BC%AF%E7%88%BE</t>
   </si>
   <si>
-    <t>古特·布洛伯爾</t>
+    <t>古特·布洛伯尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%BB%B4%E5%BE%B7%C2%B7%E5%8D%A1%E5%B0%94%E6%A3%AE</t>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%AD%E4%BC%B8%E5%BD%8C</t>
   </si>
   <si>
-    <t>山中伸彌</t>
+    <t>山中伸弥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%BD%97%E6%80%9D%E6%9B%BC</t>
@@ -1379,19 +1376,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A7%E5%B0%BC%E5%BE%B7%C2%B7%E8%B5%AB%E7%B6%AD%E5%85%8B%E8%8C%B2</t>
   </si>
   <si>
-    <t>里奧尼德·赫維克茲</t>
+    <t>里奥尼德·赫维克兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7A%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -1415,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%B4%A2%E6%B4%9B</t>
@@ -1427,13 +1424,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E6%96%AF%C2%B7%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E9%98%BF%E7%BE%85</t>
   </si>
   <si>
-    <t>肯尼斯·約瑟夫·阿羅</t>
+    <t>肯尼斯·约瑟夫·阿罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%99%BB%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%B2%8D%E5%B0%94</t>
@@ -1445,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E9%98%BF%E5%85%8B%E5%A1%9E%E7%88%BE%E7%BE%85</t>
   </si>
   <si>
-    <t>羅伯特·阿克塞爾羅</t>
+    <t>罗伯特·阿克塞尔罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B3%A2%E7%89%B9%C2%B7%E7%8F%AD%E6%9D%9C%E6%8B%89</t>
@@ -1457,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%93%8B%E6%B4%9B%E5%BE%B7%C2%B7%E8%BE%9B%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·蓋洛德·辛普森</t>
+    <t>乔治·盖洛德·辛普森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E5%93%88%E6%B4%9B</t>
@@ -1487,13 +1484,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E9%BA%A5%E5%85%8B%E6%9E%97%E6%89%98%E5%85%8B</t>
   </si>
   <si>
-    <t>芭芭拉·麥克林托克</t>
+    <t>芭芭拉·麦克林托克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%99%E8%B3%93</t>
   </si>
   <si>
-    <t>阿爾伯特·沙賓</t>
+    <t>阿尔伯特·沙宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%AB%8B%E9%A1%BF%C2%B7%E5%BC%BA%E6%96%AF</t>
@@ -1505,19 +1502,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E6%96%87%C2%B7%E6%9F%A5%E6%88%88%E5%A4%AB</t>
   </si>
   <si>
-    <t>埃爾文·查戈夫</t>
+    <t>埃尔文·查戈夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%AD%87%C2%B7%E5%90%89%E8%80%B6%E6%9B%BC</t>
   </si>
   <si>
-    <t>羅歇·吉耶曼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%8F%AF%C2%B7%E5%A8%81%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>艾德華·威爾森</t>
+    <t>艾德华·威尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%91%A9%C2%B7%E6%9C%AC%E6%B3%BD</t>
@@ -1529,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>保羅·伯格</t>
+    <t>保罗·伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7O%C2%B7%E8%BF%AA%E7%BA%B3</t>
@@ -1547,15 +1541,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8E%8E%E7%90%B3%C2%B7%E8%96%A9%E6%96%AF%E6%9B%BC%C2%B7%E9%9B%85%E6%B4%9B</t>
   </si>
   <si>
-    <t>羅莎琳·薩斯曼·雅洛</t>
+    <t>罗莎琳·萨斯曼·雅洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E6%96%AF%E4%BD%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>羅傑·斯佩里</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%9A%E8%80%B6</t>
   </si>
   <si>
@@ -1565,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E7%88%BE%C2%B7%E6%B9%AF%E7%91%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>唐納爾·湯瑪斯</t>
+    <t>唐纳尔·汤玛斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E4%BC%8A%E5%A4%AB%E6%9E%97%C2%B7%E5%93%88%E9%92%A6%E6%A3%AE</t>
@@ -1577,9 +1568,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E9%A6%AC%E4%B8%81%C2%B7%E7%89%B9%E6%98%8E</t>
   </si>
   <si>
-    <t>霍華德·馬丁·特明</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%C2%B7%E8%AF%BA%E4%BC%8A%E8%B4%B9%E5%B0%94%E5%BE%B7</t>
   </si>
   <si>
@@ -1601,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%C2%B7%E8%89%BE%E5%A7%86%E6%96%AF</t>
   </si>
   <si>
-    <t>布魯斯·艾姆斯</t>
+    <t>布鲁斯·艾姆斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E7%BD%97%E5%88%A9</t>
@@ -1613,13 +1601,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%BE%B7%C2%B7%E6%88%B4%E8%92%99</t>
   </si>
   <si>
-    <t>賈德·戴蒙</t>
+    <t>贾德·戴蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%B3%C2%B7%E9%A6%AC%E5%8F%A4%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>琳·馬古利斯</t>
+    <t>琳·马古利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E9%9B%B7%E6%96%87</t>
@@ -1637,9 +1625,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%A5%A7%C2%B7%E5%8D%A1%E4%BD%A9%E5%A5%87</t>
   </si>
   <si>
-    <t>馬里奧·卡佩奇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%C2%B7%E6%A0%BC%E9%9B%B7%E6%AF%94%E5%B0%94</t>
   </si>
   <si>
@@ -1649,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%85%8B%E6%89%98%C2%B7%E9%BA%A5%E5%BA%AB%E8%A5%BF%E5%85%8B</t>
   </si>
   <si>
-    <t>維克托·麥庫西克</t>
+    <t>维克托·麦库西克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%C2%B7%E6%96%AF%E5%A5%88%E5%BE%B7</t>
@@ -1679,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E6%9F%AF%E6%9E%97%E6%96%AF</t>
   </si>
   <si>
-    <t>法蘭西斯·柯林斯</t>
+    <t>法兰西斯·柯林斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%B1%E6%81%A9%C2%B7%E5%AF%8C%E5%85%8B%E6%96%AF</t>
@@ -1691,7 +1676,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%A0%BC%C2%B7%E5%87%A1%E7%89%B9</t>
   </si>
   <si>
-    <t>克萊格·凡特</t>
+    <t>克莱格·凡特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%8F%8A%C2%B7%E6%9E%97%E5%BE%B7%E5%A5%8E%E6%96%AF%E7%89%B9</t>
@@ -1703,7 +1688,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%85%A6</t>
   </si>
   <si>
-    <t>錢煦</t>
+    <t>钱煦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E8%80%B6%E5%B0%BC%E6%96%BD</t>
@@ -1757,13 +1742,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%81%A0%E5%93%B2</t>
   </si>
   <si>
-    <t>李遠哲</t>
+    <t>李远哲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%87%8C%E4%BA%9E%E6%96%AF%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A7%91%E9%87%8C</t>
   </si>
   <si>
-    <t>艾里亞斯·詹姆斯·科里</t>
+    <t>艾里亚斯·詹姆斯·科里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E6%96%87%C2%B7%E5%8D%A1%E5%B0%94%E6%96%87</t>
@@ -1793,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%C2%B7%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E8%A5%BF%E5%8D%9A%E6%A0%BC</t>
   </si>
   <si>
-    <t>格倫·西奧多·西博格</t>
+    <t>格伦·西奥多·西博格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E5%85%8B%E6%8B%89%E5%A7%86</t>
@@ -1859,13 +1844,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E9%98%BF%E5%88%A9%E7%B6%AD%E8%96%A9%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>保羅·阿利維薩托斯</t>
+    <t>保罗·阿利维萨托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E9%A6%AE%C2%B7%E5%8D%A1%E9%96%80</t>
   </si>
   <si>
-    <t>西奧多·馮·卡門</t>
+    <t>西奥多·冯·卡门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E5%B0%BC%E7%93%A6%E5%B0%94%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E8%B3%93%E6%A3%AE%C2%B7%E7%9A%AE%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅賓森·皮爾斯</t>
+    <t>约翰·罗宾森·皮尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%88%A9%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A_(%E5%B7%A5%E7%A8%8B%E5%B8%88)</t>
@@ -1889,13 +1874,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%C2%B7%E5%9D%8E%E9%81%94%E5%85%92%C2%B7%E8%B7%AF%E6%98%93%E6%96%AF</t>
   </si>
   <si>
-    <t>沃倫·坎達兒·路易斯</t>
+    <t>沃伦·坎达儿·路易斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E5%BE%B7%C2%B7%E5%A4%8F%E8%BE%B2</t>
   </si>
   <si>
-    <t>克勞德·夏農</t>
+    <t>克劳德·夏农</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%88%88%E5%B0%94%C2%B7%E4%BC%8A%E4%B8%87%E8%AF%BA%E7%BB%B4%E5%A5%87%C2%B7%E8%A5%BF%E7%A7%91%E5%B0%94%E6%96%AF%E5%9F%BA</t>
@@ -1907,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E5%9F%BA%E7%88%BE%E6%AF%94</t>
   </si>
   <si>
-    <t>傑克·基爾比</t>
+    <t>杰克·基尔比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%B5%B7%E8%BE%BE%E5%BE%B7%C2%B7%E7%9A%AE%E5%85%8B%E6%9E%97</t>
@@ -1925,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%C2%B7%E9%A6%AE%C2%B7%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>華納·馮·布朗</t>
+    <t>华纳·冯·布朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%AF%BA%E4%BC%8A%E6%96%AF</t>
@@ -1949,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%8B%9C%E5%80%AB%C2%B7%E6%9F%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>羅伯特·拜倫·柏德</t>
+    <t>罗伯特·拜伦·柏德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E5%BE%B7%E9%87%8C%E5%BE%B7%C2%B7%E5%BE%B7%E9%9B%B7%E6%96%AF%E5%B0%94%E8%B1%AA%E6%96%AF</t>
@@ -1961,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%C2%B7%E4%BD%95%E5%80%AB%E4%BA%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>尼克·何倫亞克</t>
+    <t>尼克·何伦亚克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%93%88%E5%88%A9%C2%B7%E6%B5%B7%E5%B0%94%E8%BF%88%E8%80%B6</t>
@@ -1979,19 +1964,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E5%85%83%E6%A5%A8</t>
   </si>
   <si>
-    <t>馮元楨</t>
+    <t>冯元桢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%BA%AB%C2%B7%E5%B0%BC%E5%B8%83%E6%B4%9B%E5%85%8B%C2%B7%E8%90%8A%E7%89%B9%E5%AF%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>埃德溫·尼布洛克·萊特富特</t>
+    <t>埃德温·尼布洛克·莱特富特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%98%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>羅伯特·蘭格</t>
+    <t>罗伯特·兰格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E7%93%A6%E6%81%A9%E5%85%B0</t>
@@ -2003,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E5%8D%A1%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>魯道夫·卡爾曼</t>
+    <t>鲁道夫·卡尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7B%C2%B7%E5%8F%A4%E8%BF%AA%E7%BA%B3%E5%A4%AB</t>
@@ -2015,13 +2000,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%BC%AF%E7%89%B9%C2%B7%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>諾伯特·維納</t>
+    <t>诺伯特·维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E8%90%8A%E5%A4%AB%E8%AC%9D%E8%8C%A8</t>
   </si>
   <si>
-    <t>所羅門·萊夫謝茨</t>
+    <t>所罗门·莱夫谢茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E5%8D%A1%C2%B7%E6%89%8E%E9%87%8C%E6%96%AF%E5%9F%BA</t>
@@ -2063,25 +2048,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E7%89%B9%C2%B7%E5%93%A5%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>庫爾特·哥德爾</t>
+    <t>库尔特·哥德尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B7%B4%E7%A7%91%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·巴科斯</t>
+    <t>约翰·巴科斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%9C%81%E8%BA%AB</t>
   </si>
   <si>
-    <t>陳省身</t>
+    <t>陈省身</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E4%B8%B9%E9%BD%8A%E6%A0%BC</t>
   </si>
   <si>
-    <t>喬治·伯納德·丹齊格</t>
+    <t>乔治·伯纳德·丹齐格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%8B%92%C2%B7%E6%83%A0%E7%89%B9%E5%B0%BC</t>
@@ -2093,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>高德納</t>
+    <t>高德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%B2%99%E9%81%93%E5%B0%94%C2%B7%E8%BE%9B%E6%A0%BC</t>
@@ -2117,13 +2102,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E6%9B%BC</t>
   </si>
   <si>
-    <t>麥可·弗里德曼</t>
+    <t>麦可·弗里德曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%96%AF%C2%B7%E9%BA%A5%E5%85%8B%E8%98%AD%E6%81%A9</t>
   </si>
   <si>
-    <t>桑德斯·麥克蘭恩</t>
+    <t>桑德斯·麦克兰恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%C2%B7%E7%A7%91%E5%B0%94%C2%B7%E5%85%8B%E8%8E%B1%E5%B0%BC</t>
@@ -2147,13 +2132,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%A7%91%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·科克</t>
+    <t>约翰·科克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E5%B0%BC%E5%80%AB%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>路易·尼倫伯格</t>
+    <t>路易·尼伦伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E5%8D%A1%E6%99%AE</t>
@@ -2165,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%96%AF%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>史蒂芬·斯梅爾</t>
+    <t>史蒂芬·斯梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E6%88%90%E6%A1%90</t>
@@ -2177,7 +2162,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E9%87%8C%E6%A0%BC%E6%96%AF%C2%B7%E6%B9%AF%E6%99%AE%E6%A3%AE</t>
   </si>
   <si>
-    <t>約翰·格里格斯·湯普森</t>
+    <t>约翰·格里格斯·汤普森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E4%BA%9A%E6%96%AF%C2%B7%E6%96%BD%E6%B3%B0%E5%9B%A0</t>
@@ -2189,7 +2174,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E6%96%AF%C2%B7%E8%98%87%E5%88%A9%E6%96%87</t>
   </si>
   <si>
-    <t>丹尼斯·蘇利文</t>
+    <t>丹尼斯·苏利文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%E7%BA%B3%E5%A4%9A%C2%B7%E5%85%8B%E8%8E%B1%E6%B4%9B%E5%85%8B</t>
@@ -2219,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BE%85%E9%96%80%C2%B7%E6%A0%BC%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>所羅門·格倫布</t>
+    <t>所罗门·格伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E5%B8%83%E8%8E%B1%E5%85%8B%E9%9F%A6%E5%B0%94</t>
@@ -2231,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E9%98%BF%E5%BB%B7</t>
   </si>
   <si>
-    <t>麥可·阿廷</t>
+    <t>麦可·阿廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%98%BF%E5%B0%94%E7%93%A6%E9%9B%B7%E8%8C%A8</t>
@@ -2249,7 +2234,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%B0%A4%E9%87%8C</t>
   </si>
   <si>
-    <t>哈羅德·尤里</t>
+    <t>哈罗德·尤里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -2273,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%98%82%C2%B7%E8%90%8A%E5%BE%B7%E6%9B%BC</t>
   </si>
   <si>
-    <t>利昂·萊德曼</t>
+    <t>利昂·莱德曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%B8%83%E6%8B%89%E9%A9%AC%E5%B0%BC%E6%89%AC%C2%B7%E9%92%B1%E5%BE%B7%E6%8B%89%E5%A1%9E%E5%8D%A1</t>
@@ -2291,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%A1%E6%89%B6%E7%B4%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·凡扶累克</t>
+    <t>约翰·凡扶累克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E4%BD%90%E5%88%A9%E9%87%91</t>
@@ -2303,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E4%BC%AF%E7%89%B9%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>赫爾伯特·傅利曼</t>
+    <t>赫尔伯特·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%C2%B7%E6%98%82%E8%90%A8%E6%A0%BC</t>
@@ -2333,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%83%A0%E5%8B%92</t>
   </si>
   <si>
-    <t>約翰·惠勒</t>
+    <t>约翰·惠勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9D%B0%E6%8B%89%E8%A5%BF</t>
@@ -2363,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%AF%C2%B7%E8%B4%9D%E7%89%B9</t>
@@ -2381,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%8D%C2%B7%E7%B4%A2%E7%B1%B3</t>
   </si>
   <si>
-    <t>維爾納·索米</t>
+    <t>维尔纳·索米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E9%99%B6%E5%B8%83</t>
@@ -2405,7 +2390,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>赫爾曼·弗朗西斯·馬克</t>
+    <t>赫尔曼·弗朗西斯·马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -2417,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%9B%BC%C2%B7%E5%8F%B2%E5%8C%B9%E5%93%B2</t>
   </si>
   <si>
-    <t>萊曼·史匹哲</t>
+    <t>莱曼·史匹哲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E6%89%98%C2%B7%E9%AD%8F%E6%96%AF%E7%A7%91%E6%99%AE%E5%A4%AB</t>
@@ -2441,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -2453,13 +2438,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%C2%B7%E4%BC%AF%E6%AF%94%E5%A5%87</t>
   </si>
   <si>
-    <t>瑪格麗特·伯比奇</t>
+    <t>玛格丽特·伯比奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E8%8A%92%E5%85%8B</t>
   </si>
   <si>
-    <t>沃爾特·芒克</t>
+    <t>沃尔特·芒克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E8%8E%B1%E5%9B%A0%E6%96%AF</t>
@@ -2477,43 +2462,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E9%9C%8D%E5%A4%AB%E6%96%BD%E5%A1%94%E7%89%B9</t>
   </si>
   <si>
-    <t>羅伯特·霍夫施塔特</t>
+    <t>罗伯特·霍夫施塔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%8C%AF%E5%AF%A7</t>
   </si>
   <si>
-    <t>楊振寧</t>
+    <t>杨振宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%8A%9B%E6%99%AE%C2%B7%E8%89%BE%E8%B2%9D%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>菲力普·艾貝爾森</t>
+    <t>菲力普·艾贝尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%B6%93%E6%AD%A6</t>
   </si>
   <si>
-    <t>朱經武</t>
+    <t>朱经武</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E7%A7%91%E6%81%A9</t>
   </si>
   <si>
-    <t>沃爾特·科恩</t>
+    <t>沃尔特·科恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%C2%B7%E6%8B%89%E5%A7%86%E9%BD%8A</t>
   </si>
   <si>
-    <t>諾曼·拉姆齊</t>
+    <t>诺曼·拉姆齐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%C2%B7%E6%96%BD%E6%B3%B0%E5%9B%A0%E8%B4%9D%E6%A0%BC%E5%B0%94</t>
@@ -2561,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%87%E6%8B%89%C2%B7%E9%AD%AF%E8%B3%93</t>
   </si>
   <si>
-    <t>薇拉·魯賓</t>
+    <t>薇拉·鲁宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E6%96%AF%C2%B7%E5%BE%B7%E9%BB%98%E5%B0%94%E7%89%B9</t>
@@ -2573,13 +2558,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E5%8F%B2%E7%93%A6%E8%A5%BF</t>
   </si>
   <si>
-    <t>馬丁·史瓦西</t>
+    <t>马丁·史瓦西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%85%8B%E7%BE%85%E5%AF%A7</t>
   </si>
   <si>
-    <t>詹姆斯·克羅寧</t>
+    <t>詹姆斯·克罗宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%88%A9%E6%96%AF%C2%B7%E5%85%B0%E5%A7%86</t>
@@ -2591,19 +2576,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%88%A9%E7%B1%B3%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E6%AD%90%E6%96%AF%E5%9E%82%E5%85%8B</t>
   </si>
   <si>
-    <t>耶利米·保羅·歐斯垂克</t>
+    <t>耶利米·保罗·欧斯垂克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%E5%BE%B7%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>雷蒙德·戴維斯</t>
+    <t>雷蒙德·戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%82%91%E6%A3%AE%C2%B7%E6%91%A9%E6%A0%B9</t>
   </si>
   <si>
-    <t>威廉·傑森·摩根</t>
+    <t>威廉·杰森·摩根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E5%A8%81%E6%BB%95</t>
@@ -2615,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8D%A1%E7%88%BE%E5%A4%9A%C2%B7%E8%B3%88%E7%A7%91%E5%B0%BC</t>
   </si>
   <si>
-    <t>里卡爾多·賈科尼</t>
+    <t>里卡尔多·贾科尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E9%98%BF%E5%B0%94%E8%8F%B2</t>
@@ -2639,7 +2624,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E5%BE%B7%E6%8B%89%C2%B7%E6%B3%95%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>珊德拉·法貝爾</t>
+    <t>珊德拉·法贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%A1%BF%C2%B7%E9%87%8C%E5%85%8B%E7%89%B9</t>
@@ -2651,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2669,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2687,7 +2672,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2699,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3366,7 +3351,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -3392,10 +3377,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -3421,10 +3406,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -3450,10 +3435,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3479,10 +3464,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3508,10 +3493,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3537,10 +3522,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -3566,10 +3551,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3595,10 +3580,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3624,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3653,10 +3638,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3682,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3711,10 +3696,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3740,10 +3725,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3769,10 +3754,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3798,10 +3783,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3827,10 +3812,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3856,10 +3841,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3885,10 +3870,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3914,10 +3899,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3943,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3972,10 +3957,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4001,10 +3986,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4030,10 +4015,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4059,10 +4044,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4088,10 +4073,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4117,10 +4102,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4146,10 +4131,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4175,10 +4160,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4204,10 +4189,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4233,10 +4218,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4262,10 +4247,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4291,10 +4276,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4320,10 +4305,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4349,10 +4334,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4378,10 +4363,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4407,10 +4392,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4436,10 +4421,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4465,10 +4450,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4494,10 +4479,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4523,10 +4508,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4552,10 +4537,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4581,10 +4566,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4610,10 +4595,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4639,10 +4624,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4668,10 +4653,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4697,10 +4682,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4726,10 +4711,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4755,10 +4740,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4784,10 +4769,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4813,10 +4798,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4842,10 +4827,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4871,10 +4856,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -4900,10 +4885,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4929,10 +4914,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4958,10 +4943,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4987,10 +4972,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5016,10 +5001,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5045,10 +5030,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5074,10 +5059,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5103,10 +5088,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5132,10 +5117,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5161,10 +5146,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5190,10 +5175,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5219,10 +5204,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5248,10 +5233,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5277,10 +5262,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5306,10 +5291,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5335,10 +5320,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5364,10 +5349,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5393,10 +5378,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5422,10 +5407,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5451,10 +5436,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5480,10 +5465,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5509,10 +5494,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5538,10 +5523,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5567,10 +5552,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5596,10 +5581,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5625,10 +5610,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5654,10 +5639,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5683,10 +5668,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5712,10 +5697,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5741,10 +5726,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5770,10 +5755,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5799,10 +5784,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5828,10 +5813,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5857,10 +5842,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5886,10 +5871,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5915,10 +5900,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5944,10 +5929,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5973,10 +5958,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6002,10 +5987,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6031,10 +6016,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6060,10 +6045,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6089,10 +6074,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6118,10 +6103,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6147,10 +6132,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6176,10 +6161,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6205,10 +6190,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6234,10 +6219,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6263,10 +6248,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6292,10 +6277,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6321,10 +6306,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6350,10 +6335,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6379,10 +6364,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6408,10 +6393,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6437,10 +6422,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6466,10 +6451,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6495,10 +6480,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6524,10 +6509,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6553,10 +6538,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6582,10 +6567,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6611,10 +6596,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6640,10 +6625,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6669,10 +6654,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6698,10 +6683,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6727,10 +6712,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6756,10 +6741,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6785,10 +6770,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6814,10 +6799,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6843,10 +6828,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6872,10 +6857,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6901,10 +6886,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6930,10 +6915,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6959,10 +6944,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6988,10 +6973,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7017,10 +7002,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7046,10 +7031,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7075,10 +7060,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7104,10 +7089,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7133,10 +7118,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7191,10 +7176,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7220,10 +7205,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7249,10 +7234,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7278,10 +7263,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7307,10 +7292,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7336,10 +7321,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7365,10 +7350,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7394,10 +7379,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7423,10 +7408,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -7452,10 +7437,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7481,10 +7466,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -7510,10 +7495,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7539,10 +7524,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7568,10 +7553,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7597,10 +7582,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7626,10 +7611,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7655,10 +7640,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7684,10 +7669,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7713,10 +7698,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7742,10 +7727,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7771,10 +7756,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7800,10 +7785,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7829,10 +7814,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7858,10 +7843,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7887,10 +7872,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7916,10 +7901,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7945,10 +7930,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7974,10 +7959,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -8003,10 +7988,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8032,10 +8017,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8061,10 +8046,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8090,10 +8075,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8119,10 +8104,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8148,10 +8133,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8177,10 +8162,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8206,10 +8191,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8235,10 +8220,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8264,10 +8249,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8293,10 +8278,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8322,10 +8307,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8351,10 +8336,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8380,10 +8365,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8409,10 +8394,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8438,10 +8423,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8467,10 +8452,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8496,10 +8481,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8525,10 +8510,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8554,10 +8539,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8583,10 +8568,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8612,10 +8597,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8641,10 +8626,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8670,10 +8655,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8699,10 +8684,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8728,10 +8713,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8757,10 +8742,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8786,10 +8771,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8815,10 +8800,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8844,10 +8829,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8873,10 +8858,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8902,10 +8887,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8931,10 +8916,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8960,10 +8945,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8989,10 +8974,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9018,10 +9003,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9047,10 +9032,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9076,10 +9061,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9105,10 +9090,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9134,10 +9119,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9163,10 +9148,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9192,10 +9177,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9221,10 +9206,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9250,10 +9235,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9279,10 +9264,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9308,10 +9293,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9337,10 +9322,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9366,10 +9351,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9395,10 +9380,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9424,10 +9409,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9453,10 +9438,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9482,10 +9467,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9511,10 +9496,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9540,10 +9525,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9569,10 +9554,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9598,10 +9583,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9627,10 +9612,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9656,10 +9641,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9685,10 +9670,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9714,10 +9699,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9743,10 +9728,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9772,10 +9757,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9801,10 +9786,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9830,10 +9815,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9859,10 +9844,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9888,10 +9873,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9917,10 +9902,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9946,10 +9931,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9975,10 +9960,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10004,10 +9989,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10033,10 +10018,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>218</v>
+      </c>
+      <c r="F241" t="s">
         <v>219</v>
-      </c>
-      <c r="F241" t="s">
-        <v>220</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10062,10 +10047,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>204</v>
+      </c>
+      <c r="F242" t="s">
         <v>205</v>
-      </c>
-      <c r="F242" t="s">
-        <v>206</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10091,10 +10076,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>478</v>
+      </c>
+      <c r="F243" t="s">
         <v>479</v>
-      </c>
-      <c r="F243" t="s">
-        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10120,10 +10105,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>148</v>
+      </c>
+      <c r="F244" t="s">
         <v>149</v>
-      </c>
-      <c r="F244" t="s">
-        <v>150</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10149,10 +10134,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>480</v>
+      </c>
+      <c r="F245" t="s">
         <v>481</v>
-      </c>
-      <c r="F245" t="s">
-        <v>482</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10178,10 +10163,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>482</v>
+      </c>
+      <c r="F246" t="s">
         <v>483</v>
-      </c>
-      <c r="F246" t="s">
-        <v>484</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10207,10 +10192,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>484</v>
+      </c>
+      <c r="F247" t="s">
         <v>485</v>
-      </c>
-      <c r="F247" t="s">
-        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10236,10 +10221,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>486</v>
+      </c>
+      <c r="F248" t="s">
         <v>487</v>
-      </c>
-      <c r="F248" t="s">
-        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10265,10 +10250,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>488</v>
+      </c>
+      <c r="F249" t="s">
         <v>489</v>
-      </c>
-      <c r="F249" t="s">
-        <v>490</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10294,10 +10279,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>490</v>
+      </c>
+      <c r="F250" t="s">
         <v>491</v>
-      </c>
-      <c r="F250" t="s">
-        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10323,10 +10308,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>232</v>
+      </c>
+      <c r="F251" t="s">
         <v>233</v>
-      </c>
-      <c r="F251" t="s">
-        <v>234</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10352,10 +10337,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>492</v>
+      </c>
+      <c r="F252" t="s">
         <v>493</v>
-      </c>
-      <c r="F252" t="s">
-        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10381,10 +10366,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>494</v>
+      </c>
+      <c r="F253" t="s">
         <v>495</v>
-      </c>
-      <c r="F253" t="s">
-        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10410,10 +10395,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>261</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10439,10 +10424,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10468,10 +10453,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>174</v>
+      </c>
+      <c r="F256" t="s">
         <v>175</v>
-      </c>
-      <c r="F256" t="s">
-        <v>176</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10497,10 +10482,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>172</v>
+      </c>
+      <c r="F257" t="s">
         <v>173</v>
-      </c>
-      <c r="F257" t="s">
-        <v>174</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10526,10 +10511,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10555,10 +10540,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10584,10 +10569,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>302</v>
+      </c>
+      <c r="F260" t="s">
         <v>303</v>
-      </c>
-      <c r="F260" t="s">
-        <v>304</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10613,10 +10598,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>248</v>
+      </c>
+      <c r="F261" t="s">
         <v>249</v>
-      </c>
-      <c r="F261" t="s">
-        <v>250</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10642,10 +10627,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10671,10 +10656,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>216</v>
+      </c>
+      <c r="F263" t="s">
         <v>217</v>
-      </c>
-      <c r="F263" t="s">
-        <v>218</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10700,10 +10685,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>304</v>
+      </c>
+      <c r="F264" t="s">
         <v>305</v>
-      </c>
-      <c r="F264" t="s">
-        <v>306</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10729,10 +10714,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>298</v>
+      </c>
+      <c r="F265" t="s">
         <v>299</v>
-      </c>
-      <c r="F265" t="s">
-        <v>300</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10758,10 +10743,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10787,10 +10772,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>300</v>
+      </c>
+      <c r="F267" t="s">
         <v>301</v>
-      </c>
-      <c r="F267" t="s">
-        <v>302</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10816,10 +10801,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>360</v>
+      </c>
+      <c r="F268" t="s">
         <v>361</v>
-      </c>
-      <c r="F268" t="s">
-        <v>362</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10845,10 +10830,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10874,10 +10859,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>170</v>
+      </c>
+      <c r="F270" t="s">
         <v>171</v>
-      </c>
-      <c r="F270" t="s">
-        <v>172</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10903,10 +10888,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10932,10 +10917,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>276</v>
+      </c>
+      <c r="F272" t="s">
         <v>277</v>
-      </c>
-      <c r="F272" t="s">
-        <v>278</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10961,10 +10946,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10990,10 +10975,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>336</v>
+      </c>
+      <c r="F274" t="s">
         <v>337</v>
-      </c>
-      <c r="F274" t="s">
-        <v>338</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11019,10 +11004,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F275" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11048,10 +11033,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F276" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11077,10 +11062,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>224</v>
+      </c>
+      <c r="F277" t="s">
         <v>225</v>
-      </c>
-      <c r="F277" t="s">
-        <v>226</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11106,10 +11091,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>255</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11135,10 +11120,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>268</v>
+      </c>
+      <c r="F279" t="s">
         <v>269</v>
-      </c>
-      <c r="F279" t="s">
-        <v>270</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11164,10 +11149,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11193,10 +11178,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11222,10 +11207,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>184</v>
+      </c>
+      <c r="F282" t="s">
         <v>185</v>
-      </c>
-      <c r="F282" t="s">
-        <v>186</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11251,10 +11236,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11280,10 +11265,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11309,10 +11294,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11338,10 +11323,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>250</v>
+      </c>
+      <c r="F286" t="s">
         <v>251</v>
-      </c>
-      <c r="F286" t="s">
-        <v>252</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11367,10 +11352,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11396,10 +11381,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11425,10 +11410,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11454,10 +11439,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11483,10 +11468,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>391</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11512,10 +11497,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11541,10 +11526,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11570,10 +11555,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>316</v>
+      </c>
+      <c r="F294" t="s">
         <v>317</v>
-      </c>
-      <c r="F294" t="s">
-        <v>318</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11599,10 +11584,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>314</v>
+      </c>
+      <c r="F295" t="s">
         <v>315</v>
-      </c>
-      <c r="F295" t="s">
-        <v>316</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11628,10 +11613,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F296" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11657,10 +11642,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F297" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11686,10 +11671,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>330</v>
+      </c>
+      <c r="F298" t="s">
         <v>331</v>
-      </c>
-      <c r="F298" t="s">
-        <v>332</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11715,10 +11700,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F299" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11744,10 +11729,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>282</v>
+      </c>
+      <c r="F300" t="s">
         <v>283</v>
-      </c>
-      <c r="F300" t="s">
-        <v>284</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11773,10 +11758,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F301" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11802,10 +11787,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F302" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11831,10 +11816,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F303" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11860,10 +11845,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F304" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11889,10 +11874,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F305" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11918,10 +11903,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>346</v>
+      </c>
+      <c r="F306" t="s">
         <v>347</v>
-      </c>
-      <c r="F306" t="s">
-        <v>348</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11947,10 +11932,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11976,10 +11961,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12005,10 +11990,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12034,10 +12019,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12063,10 +12048,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12092,10 +12077,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12121,10 +12106,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12150,10 +12135,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12179,10 +12164,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12208,10 +12193,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12237,10 +12222,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>194</v>
+      </c>
+      <c r="F317" t="s">
         <v>195</v>
-      </c>
-      <c r="F317" t="s">
-        <v>196</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12266,10 +12251,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F318" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12295,10 +12280,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F319" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12324,10 +12309,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F320" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12353,10 +12338,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F321" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12382,10 +12367,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>310</v>
+      </c>
+      <c r="F322" t="s">
         <v>311</v>
-      </c>
-      <c r="F322" t="s">
-        <v>312</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12411,10 +12396,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F323" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12440,10 +12425,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F324" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12469,10 +12454,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F325" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12498,10 +12483,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F326" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12527,10 +12512,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F327" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12556,10 +12541,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F328" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12585,10 +12570,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F329" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12614,10 +12599,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F330" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12643,10 +12628,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F331" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12672,10 +12657,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F332" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12701,10 +12686,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F333" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12730,10 +12715,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F334" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12759,10 +12744,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F335" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12788,10 +12773,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F336" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12817,10 +12802,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F337" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12846,10 +12831,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F338" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12875,10 +12860,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F339" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12904,10 +12889,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F340" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12933,10 +12918,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F341" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12962,10 +12947,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F342" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12991,10 +12976,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F343" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13020,10 +13005,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F344" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13049,10 +13034,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F345" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13078,10 +13063,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F346" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13107,10 +13092,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F347" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13136,10 +13121,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F348" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13165,10 +13150,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F349" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13194,10 +13179,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F350" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13223,10 +13208,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F351" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13252,10 +13237,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F352" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13281,10 +13266,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F353" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13310,10 +13295,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F354" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13339,10 +13324,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F355" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13368,10 +13353,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F356" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13397,10 +13382,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F357" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13426,10 +13411,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F358" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13455,10 +13440,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F359" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13484,10 +13469,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F360" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13513,10 +13498,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F361" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13542,10 +13527,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F362" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13571,10 +13556,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F363" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13600,10 +13585,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F364" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13629,10 +13614,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F365" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13658,10 +13643,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F366" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13687,10 +13672,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F367" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13716,10 +13701,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F368" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13745,10 +13730,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F369" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13774,10 +13759,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F370" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13803,10 +13788,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F371" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13832,10 +13817,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F372" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13861,10 +13846,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F373" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13890,10 +13875,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F374" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13919,10 +13904,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F375" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13948,10 +13933,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F376" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13977,10 +13962,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F377" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14006,10 +13991,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F378" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14035,10 +14020,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F379" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14064,10 +14049,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F380" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14093,10 +14078,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F381" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14122,10 +14107,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F382" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14151,10 +14136,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F383" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14180,10 +14165,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F384" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14209,10 +14194,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F385" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14238,10 +14223,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F386" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14267,10 +14252,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F387" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14296,10 +14281,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F388" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14325,10 +14310,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F389" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14354,10 +14339,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F390" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14383,10 +14368,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F391" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14412,10 +14397,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F392" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14441,10 +14426,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F393" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14470,10 +14455,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F394" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14499,10 +14484,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F395" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14528,10 +14513,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F396" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14557,10 +14542,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F397" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14586,10 +14571,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F398" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14615,10 +14600,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F399" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14644,10 +14629,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F400" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14673,10 +14658,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F401" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14702,10 +14687,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F402" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14731,10 +14716,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F403" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14760,10 +14745,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F404" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14789,10 +14774,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F405" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14818,10 +14803,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F406" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14847,10 +14832,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F407" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14876,10 +14861,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F408" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14905,10 +14890,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F409" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14934,10 +14919,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F410" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14963,10 +14948,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F411" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14992,10 +14977,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F412" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15021,10 +15006,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F413" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15050,10 +15035,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F414" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15079,10 +15064,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F415" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15108,10 +15093,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F416" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15137,10 +15122,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F417" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15166,10 +15151,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F418" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15195,10 +15180,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F419" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15224,10 +15209,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F420" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15253,10 +15238,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F421" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15282,10 +15267,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F422" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15311,10 +15296,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F423" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15340,10 +15325,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F424" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15369,10 +15354,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F425" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15398,10 +15383,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F426" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15427,10 +15412,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F427" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15456,10 +15441,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F428" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15485,10 +15470,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F429" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15514,10 +15499,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F430" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15543,10 +15528,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F431" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15572,10 +15557,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F432" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15601,10 +15586,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F433" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15630,10 +15615,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15659,10 +15644,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15688,10 +15673,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F436" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15717,10 +15702,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F437" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15746,10 +15731,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F438" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15775,10 +15760,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F439" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15804,10 +15789,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F440" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15833,10 +15818,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>374</v>
+      </c>
+      <c r="F441" t="s">
         <v>375</v>
-      </c>
-      <c r="F441" t="s">
-        <v>376</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15862,10 +15847,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F442" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15891,10 +15876,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F443" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15920,10 +15905,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F444" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15949,10 +15934,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F445" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15978,10 +15963,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F446" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16007,10 +15992,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F447" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16036,10 +16021,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>272</v>
+      </c>
+      <c r="F448" t="s">
         <v>273</v>
-      </c>
-      <c r="F448" t="s">
-        <v>274</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16065,10 +16050,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F449" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16094,10 +16079,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F450" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16123,10 +16108,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F451" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16152,10 +16137,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F452" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16181,10 +16166,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16210,10 +16195,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16239,10 +16224,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F455" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16268,10 +16253,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F456" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16297,10 +16282,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F457" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16326,10 +16311,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F458" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16355,10 +16340,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F459" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16384,10 +16369,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F460" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16413,10 +16398,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F461" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16442,10 +16427,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F462" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16471,10 +16456,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F463" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16500,10 +16485,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F464" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16529,10 +16514,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F465" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16558,10 +16543,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F466" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16587,10 +16572,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F467" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16616,10 +16601,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F468" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16645,10 +16630,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F469" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G469" t="n">
         <v>3</v>
@@ -16674,10 +16659,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F470" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16703,10 +16688,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F471" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16732,10 +16717,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F472" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16761,10 +16746,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F473" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16790,10 +16775,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F474" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16819,10 +16804,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F475" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16848,10 +16833,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F476" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16877,10 +16862,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F477" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16906,10 +16891,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F478" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
